--- a/data/orgs/about/about_model_training_results_v2.xlsx
+++ b/data/orgs/about/about_model_training_results_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjay/dev/EAGER/data/orgs/about/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07BFD252-0BB0-A641-9090-AB5B8FC9C9FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3079A6A5-016E-CA4F-B5AF-C75A7221A43A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="1820" windowWidth="31400" windowHeight="18920" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1740" yWindow="1820" windowWidth="31400" windowHeight="18920" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text based features" sheetId="1" r:id="rId1"/>
@@ -18,16 +18,7 @@
     <sheet name="Final" sheetId="3" r:id="rId3"/>
     <sheet name="Final_T" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Final!$A$2:$A$11</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Final!$B$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Final!$B$2:$B$11</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Final!$C$1</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Final!$C$2:$C$11</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Final!$D$1</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Final!$D$2:$D$11</definedName>
-  </definedNames>
-  <calcPr calcId="150000"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -40,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="46">
   <si>
     <t>Name</t>
   </si>
@@ -161,6 +152,24 @@
   <si>
     <t>All features minus header text</t>
   </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>[[294  17]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 43  83]]</t>
+  </si>
+  <si>
+    <t>[[192  13]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 25  61]]</t>
+  </si>
 </sst>
 </file>
 
@@ -270,7 +279,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -283,6 +292,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2681,13 +2691,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1337733</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>55032</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>829732</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>84665</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5182,10 +5192,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5350,6 +5360,40 @@
         <v>0.45300000000000001</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="12">
+        <f>MIN(B3:B5,B7:B8)</f>
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="C13" s="12">
+        <f t="shared" ref="C13:D13" si="0">MIN(C3:C5,C7:C8)</f>
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="D13" s="12">
+        <f t="shared" si="0"/>
+        <v>0.73199999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="12">
+        <f>MAX(B3:B5,B7:B8)</f>
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="C14" s="12">
+        <f t="shared" ref="C14:D14" si="1">MAX(C3:C5,C7:C8)</f>
+        <v>0.877</v>
+      </c>
+      <c r="D14" s="12">
+        <f t="shared" si="1"/>
+        <v>0.88800000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -5359,10 +5403,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5543,6 +5587,44 @@
         <v>0.45605899999999999</v>
       </c>
     </row>
+    <row r="22" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <f>(294+83)/(17+43+294+83)</f>
+        <v>0.86270022883295194</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <f>(192+61)/(192+61+13+25)</f>
+        <v>0.86941580756013748</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <f>2*61/(2*61+13+25)</f>
+        <v>0.76249999999999996</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
